--- a/Documents/Event_sheet_sound_design.xlsx
+++ b/Documents/Event_sheet_sound_design.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edenc\OneDrive\Bureau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\betar\Documents\GitHub\GitHub\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACDF3D3-E035-4C6E-8838-977D09CC2AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7890"/>
+    <workbookView xWindow="28680" yWindow="-255" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="71">
   <si>
     <t>EventName</t>
   </si>
@@ -223,12 +224,27 @@
   </si>
   <si>
     <t>on collision with level transi index</t>
+  </si>
+  <si>
+    <t>Hub</t>
+  </si>
+  <si>
+    <t>Hub entry</t>
+  </si>
+  <si>
+    <t>Ambiance hub</t>
+  </si>
+  <si>
+    <t>Son lorsque l'on rentre dans le hub</t>
+  </si>
+  <si>
+    <t>Arrivée dans le hub</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -690,24 +706,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D2"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" customWidth="1"/>
-    <col min="2" max="2" width="31.36328125" customWidth="1"/>
-    <col min="6" max="6" width="45.6328125" customWidth="1"/>
-    <col min="9" max="9" width="37.7265625" customWidth="1"/>
-    <col min="10" max="10" width="29.7265625" customWidth="1"/>
-    <col min="11" max="11" width="19.1796875" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="6" max="6" width="45.5703125" customWidth="1"/>
+    <col min="9" max="9" width="37.7109375" customWidth="1"/>
+    <col min="10" max="10" width="29.7109375" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -745,7 +761,7 @@
       <c r="O1" s="6"/>
       <c r="P1" s="7"/>
     </row>
-    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -775,12 +791,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>20</v>
       </c>
@@ -803,7 +819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>48</v>
       </c>
@@ -823,7 +839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>47</v>
       </c>
@@ -843,7 +859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>49</v>
       </c>
@@ -866,12 +882,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -897,7 +913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>23</v>
       </c>
@@ -923,7 +939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>26</v>
       </c>
@@ -946,7 +962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>44</v>
       </c>
@@ -966,7 +982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>45</v>
       </c>
@@ -986,7 +1002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>46</v>
       </c>
@@ -1006,12 +1022,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>18</v>
       </c>
@@ -1031,7 +1047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" t="s">
         <v>43</v>
@@ -1058,7 +1074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>24</v>
       </c>
@@ -1081,12 +1097,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>41</v>
       </c>
@@ -1106,7 +1122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>19</v>
       </c>
@@ -1126,19 +1142,55 @@
         <v>1</v>
       </c>
     </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J23" t="s">
+        <v>54</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:P1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
